--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.6055753257081</v>
+        <v>573.4128966849557</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.3695627225624</v>
+        <v>784.5688224359728</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.4318360346841</v>
+        <v>709.6906751719411</v>
       </c>
       <c r="AD2" t="n">
-        <v>512605.5753257081</v>
+        <v>573412.8966849557</v>
       </c>
       <c r="AE2" t="n">
-        <v>701369.5627225623</v>
+        <v>784568.8224359729</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908028262720145e-06</v>
+        <v>3.530351835362944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.9638671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>634431.8360346841</v>
+        <v>709690.6751719411</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.8640906187062</v>
+        <v>289.2553813546137</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.3987337635086</v>
+        <v>395.7719738161793</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.8119072429359</v>
+        <v>358.0000521046163</v>
       </c>
       <c r="AD3" t="n">
-        <v>264864.0906187062</v>
+        <v>289255.3813546137</v>
       </c>
       <c r="AE3" t="n">
-        <v>362398.7337635086</v>
+        <v>395771.9738161793</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.962597612271135e-06</v>
+        <v>5.481581233504675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.128580729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>327811.907242936</v>
+        <v>358000.0521046163</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.6525893790898</v>
+        <v>237.1291314610175</v>
       </c>
       <c r="AB4" t="n">
-        <v>290.9606543584614</v>
+        <v>324.4505390637641</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.1917778724187</v>
+        <v>293.4854349848064</v>
       </c>
       <c r="AD4" t="n">
-        <v>212652.5893790898</v>
+        <v>237129.1314610175</v>
       </c>
       <c r="AE4" t="n">
-        <v>290960.6543584614</v>
+        <v>324450.5390637641</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358376228716169e-06</v>
+        <v>6.213875294480577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>263191.7778724187</v>
+        <v>293485.4349848064</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.6112926262213</v>
+        <v>216.9172425075568</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.5392679815885</v>
+        <v>296.7957409120444</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.3874501251884</v>
+        <v>268.469971954925</v>
       </c>
       <c r="AD5" t="n">
-        <v>192611.2926262213</v>
+        <v>216917.2425075567</v>
       </c>
       <c r="AE5" t="n">
-        <v>263539.2679815885</v>
+        <v>296795.7409120444</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.581987879196436e-06</v>
+        <v>6.627615392625726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.2431640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>238387.4501251884</v>
+        <v>268469.971954925</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.685728671331</v>
+        <v>203.9916785526665</v>
       </c>
       <c r="AB6" t="n">
-        <v>245.8539411428801</v>
+        <v>279.110414073336</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.3899860584486</v>
+        <v>252.4725078881852</v>
       </c>
       <c r="AD6" t="n">
-        <v>179685.728671331</v>
+        <v>203991.6785526665</v>
       </c>
       <c r="AE6" t="n">
-        <v>245853.9411428801</v>
+        <v>279110.414073336</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.722130295635218e-06</v>
+        <v>6.886915554344252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>222389.9860584486</v>
+        <v>252472.5078881852</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>172.6765621767178</v>
+        <v>196.9825120580533</v>
       </c>
       <c r="AB7" t="n">
-        <v>236.2636903223531</v>
+        <v>269.5201632528091</v>
       </c>
       <c r="AC7" t="n">
-        <v>213.7150153162281</v>
+        <v>243.7975371459648</v>
       </c>
       <c r="AD7" t="n">
-        <v>172676.5621767178</v>
+        <v>196982.5120580533</v>
       </c>
       <c r="AE7" t="n">
-        <v>236263.6903223532</v>
+        <v>269520.1632528091</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.791501258602582e-06</v>
+        <v>7.015269998152954e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0087890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>213715.0153162281</v>
+        <v>243797.5371459647</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.1609311845946</v>
+        <v>412.130438860892</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.6292958100772</v>
+        <v>563.895048361221</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.9453770520835</v>
+        <v>510.0776963772964</v>
       </c>
       <c r="AD2" t="n">
-        <v>365160.9311845946</v>
+        <v>412130.438860892</v>
       </c>
       <c r="AE2" t="n">
-        <v>499629.2958100772</v>
+        <v>563895.048361221</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336508430277215e-06</v>
+        <v>4.453745667058827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.728515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>451945.3770520835</v>
+        <v>510077.6963772963</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.2731275529949</v>
+        <v>242.4789230965745</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.6002373628958</v>
+        <v>331.7703599956794</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.5338287444974</v>
+        <v>300.1066624804152</v>
       </c>
       <c r="AD3" t="n">
-        <v>207273.1275529949</v>
+        <v>242478.9230965745</v>
       </c>
       <c r="AE3" t="n">
-        <v>283600.2373628957</v>
+        <v>331770.3599956793</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.327672479365918e-06</v>
+        <v>6.343057313347023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.723307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>256533.8287444974</v>
+        <v>300106.6624804152</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.5202723835689</v>
+        <v>200.9624453029824</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.8910683167763</v>
+        <v>274.9656835007812</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.709885656449</v>
+        <v>248.7233445843079</v>
       </c>
       <c r="AD4" t="n">
-        <v>177520.2723835688</v>
+        <v>200962.4453029824</v>
       </c>
       <c r="AE4" t="n">
-        <v>242891.0683167763</v>
+        <v>274965.6835007812</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.697789477622388e-06</v>
+        <v>7.048557433067968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219709.885656449</v>
+        <v>248723.3445843079</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.4518826075463</v>
+        <v>185.8940555269598</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.2738326547927</v>
+        <v>254.3484478387977</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.0603300295666</v>
+        <v>230.0737889574255</v>
       </c>
       <c r="AD5" t="n">
-        <v>162451.8826075463</v>
+        <v>185894.0555269598</v>
       </c>
       <c r="AE5" t="n">
-        <v>222273.8326547927</v>
+        <v>254348.4478387976</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.884586522149532e-06</v>
+        <v>7.404621428772642e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.046223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>201060.3300295666</v>
+        <v>230073.7889574255</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.1187070058689</v>
+        <v>184.5608799252825</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.4497229810221</v>
+        <v>252.524338165027</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.4103108229061</v>
+        <v>228.4237697507649</v>
       </c>
       <c r="AD6" t="n">
-        <v>161118.7070058689</v>
+        <v>184560.8799252825</v>
       </c>
       <c r="AE6" t="n">
-        <v>220449.7229810221</v>
+        <v>252524.3381650271</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.904096864959502e-06</v>
+        <v>7.44181115324645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.026692708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199410.3108229061</v>
+        <v>228423.7697507649</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0465132544984</v>
+        <v>181.3514998734989</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.3002590196908</v>
+        <v>248.1331227903239</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.7066904396332</v>
+        <v>224.4516458083126</v>
       </c>
       <c r="AD2" t="n">
-        <v>150046.5132544984</v>
+        <v>181351.4998734989</v>
       </c>
       <c r="AE2" t="n">
-        <v>205300.2590196908</v>
+        <v>248133.1227903239</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>8.023595055183177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.656575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>185706.6904396332</v>
+        <v>224451.6458083126</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.161912539921</v>
+        <v>154.0035461762819</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.1980034260062</v>
+        <v>210.7144460352442</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8092816955832</v>
+        <v>190.6041550452831</v>
       </c>
       <c r="AD3" t="n">
-        <v>133161.912539921</v>
+        <v>154003.5461762819</v>
       </c>
       <c r="AE3" t="n">
-        <v>182198.0034260062</v>
+        <v>210714.4460352442</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.09192168503266e-06</v>
+        <v>8.714722321207794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.287109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>164809.2816955832</v>
+        <v>190604.1550452831</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.4556469606952</v>
+        <v>236.3993285616467</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.4276772868991</v>
+        <v>323.4519905402139</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.4233515950556</v>
+        <v>292.5821865308719</v>
       </c>
       <c r="AD2" t="n">
-        <v>214455.6469606952</v>
+        <v>236399.3285616467</v>
       </c>
       <c r="AE2" t="n">
-        <v>293427.6772868991</v>
+        <v>323451.9905402139</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185345475981926e-06</v>
+        <v>6.467352591029576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.268554687499999</v>
       </c>
       <c r="AH2" t="n">
-        <v>265423.3515950556</v>
+        <v>292582.1865308719</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.3211318900389</v>
+        <v>167.1794726364188</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.8347837677279</v>
+        <v>228.742329898845</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.858271071364</v>
+        <v>206.9114829752415</v>
       </c>
       <c r="AD3" t="n">
-        <v>145321.1318900389</v>
+        <v>167179.4726364188</v>
       </c>
       <c r="AE3" t="n">
-        <v>198834.7837677279</v>
+        <v>228742.3298988451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007406700815352e-06</v>
+        <v>8.136421090035169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.187825520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179858.2710713641</v>
+        <v>206911.4829752416</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.5695177088107</v>
+        <v>164.4278584551905</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.0699038523231</v>
+        <v>224.9774499834403</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.4527060110422</v>
+        <v>203.5059179149196</v>
       </c>
       <c r="AD4" t="n">
-        <v>142569.5177088107</v>
+        <v>164427.8584551906</v>
       </c>
       <c r="AE4" t="n">
-        <v>195069.9038523231</v>
+        <v>224977.4499834403</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.06143405335677e-06</v>
+        <v>8.246115294660646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.132486979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176452.7060110422</v>
+        <v>203505.9179149196</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.1760784560071</v>
+        <v>146.3543959045654</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6396770391514</v>
+        <v>200.2485411767934</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.1631885638914</v>
+        <v>181.1371014575298</v>
       </c>
       <c r="AD2" t="n">
-        <v>126176.0784560071</v>
+        <v>146354.3959045654</v>
       </c>
       <c r="AE2" t="n">
-        <v>172639.6770391514</v>
+        <v>200248.5411767934</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.046532505254278e-06</v>
+        <v>9.010837504119902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.501953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>156163.1885638914</v>
+        <v>181137.1014575298</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.0205505246166</v>
+        <v>147.198867973175</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.7951209789008</v>
+        <v>201.4039851165428</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.2083585557072</v>
+        <v>182.1822714493456</v>
       </c>
       <c r="AD3" t="n">
-        <v>127020.5505246166</v>
+        <v>147198.867973175</v>
       </c>
       <c r="AE3" t="n">
-        <v>173795.1209789008</v>
+        <v>201403.9851165428</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.047875715402353e-06</v>
+        <v>9.01382857075843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.500325520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>157208.3585557071</v>
+        <v>182182.2714493456</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.8499477562684</v>
+        <v>443.4817282475949</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.0382915899351</v>
+        <v>606.7912656213798</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.7799002522523</v>
+        <v>548.8799588673648</v>
       </c>
       <c r="AD2" t="n">
-        <v>407849.9477562684</v>
+        <v>443481.7282475949</v>
       </c>
       <c r="AE2" t="n">
-        <v>558038.2915899351</v>
+        <v>606791.2656213798</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.217982864604531e-06</v>
+        <v>4.193681418022232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.023111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>504779.9002522523</v>
+        <v>548879.9588673648</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.8851761941715</v>
+        <v>253.4315263223749</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.1201104842905</v>
+        <v>346.7561949239641</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.6679455539608</v>
+        <v>313.6622703559007</v>
       </c>
       <c r="AD3" t="n">
-        <v>217885.1761941715</v>
+        <v>253431.5263223749</v>
       </c>
       <c r="AE3" t="n">
-        <v>298120.1104842905</v>
+        <v>346756.1949239642</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.233840457477303e-06</v>
+        <v>6.114428047120712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>269667.9455539608</v>
+        <v>313662.2703559007</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.1179773054914</v>
+        <v>209.7871866146542</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.6548274949162</v>
+        <v>287.0400838835144</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.3509281691706</v>
+        <v>259.6453811410442</v>
       </c>
       <c r="AD4" t="n">
-        <v>186117.9773054914</v>
+        <v>209787.1866146542</v>
       </c>
       <c r="AE4" t="n">
-        <v>254654.8274949162</v>
+        <v>287040.0838835144</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.60723727928044e-06</v>
+        <v>6.820433191765314e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.319661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>230350.9281691706</v>
+        <v>259645.3811410442</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.0687045073169</v>
+        <v>192.7379138164797</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.3272602916344</v>
+        <v>263.7125166802327</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.2497112393165</v>
+        <v>238.54416421119</v>
       </c>
       <c r="AD5" t="n">
-        <v>169068.7045073169</v>
+        <v>192737.9138164797</v>
       </c>
       <c r="AE5" t="n">
-        <v>231327.2602916344</v>
+        <v>263712.5166802327</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.813988659720013e-06</v>
+        <v>7.211351190338075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.085286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>209249.7112393165</v>
+        <v>238544.16421119</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.8657552572067</v>
+        <v>187.5349645663695</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.2083555897162</v>
+        <v>256.5936119783145</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.8102248107016</v>
+        <v>232.1046777825752</v>
       </c>
       <c r="AD6" t="n">
-        <v>163865.7552572067</v>
+        <v>187534.9645663695</v>
       </c>
       <c r="AE6" t="n">
-        <v>224208.3555897162</v>
+        <v>256593.6119783145</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87438686391324e-06</v>
+        <v>7.325549920476692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.021809895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>202810.2248107016</v>
+        <v>232104.6777825752</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.3051430071111</v>
+        <v>152.6185691069354</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.7115365012409</v>
+        <v>208.8194593080892</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.6099442457379</v>
+        <v>188.8900231917367</v>
       </c>
       <c r="AD2" t="n">
-        <v>123305.1430071111</v>
+        <v>152618.5691069354</v>
       </c>
       <c r="AE2" t="n">
-        <v>168711.5365012409</v>
+        <v>208819.4593080892</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.966342308687747e-06</v>
+        <v>9.093104488814178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.700520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152609.9442457379</v>
+        <v>188890.0231917367</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.2000240529509</v>
+        <v>322.6105050104357</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.277302111216</v>
+        <v>441.4099255262757</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.0796087167575</v>
+        <v>399.2823817567687</v>
       </c>
       <c r="AD2" t="n">
-        <v>277200.024052951</v>
+        <v>322610.5050104357</v>
       </c>
       <c r="AE2" t="n">
-        <v>379277.302111216</v>
+        <v>441409.9255262758</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.720098194178644e-06</v>
+        <v>5.331354869012132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.953776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>343079.6087167576</v>
+        <v>399282.3817567687</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.9966483834938</v>
+        <v>198.7019783707869</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.8063787423277</v>
+        <v>271.87281291939</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.824155929105</v>
+        <v>245.9256532303325</v>
       </c>
       <c r="AD3" t="n">
-        <v>175996.6483834938</v>
+        <v>198701.9783707869</v>
       </c>
       <c r="AE3" t="n">
-        <v>240806.3787423277</v>
+        <v>271872.81291939</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.642388018706619e-06</v>
+        <v>7.139030179102293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217824.155929105</v>
+        <v>245925.6532303325</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.2430206538374</v>
+        <v>175.9483506411305</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.6738614634181</v>
+        <v>240.7402956404803</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.6628824045221</v>
+        <v>217.7643797057496</v>
       </c>
       <c r="AD4" t="n">
-        <v>153243.0206538374</v>
+        <v>175948.3506411305</v>
       </c>
       <c r="AE4" t="n">
-        <v>209673.8614634181</v>
+        <v>240740.2956404803</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962124445789958e-06</v>
+        <v>7.76570915744926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>189662.8824045221</v>
+        <v>217764.3797057496</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.3698837816424</v>
+        <v>175.0752137689355</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.4791970748012</v>
+        <v>239.5456312518635</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.5822351084325</v>
+        <v>216.68373240966</v>
       </c>
       <c r="AD5" t="n">
-        <v>152369.8837816424</v>
+        <v>175075.2137689355</v>
       </c>
       <c r="AE5" t="n">
-        <v>208479.1970748013</v>
+        <v>239545.6312518635</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.979439770505955e-06</v>
+        <v>7.799646954595965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.070638020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>188582.2351084325</v>
+        <v>216683.73240966</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.927505687837</v>
+        <v>372.7798861398301</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.3673215914748</v>
+        <v>510.0538861044005</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.2396333553953</v>
+        <v>461.3750590797209</v>
       </c>
       <c r="AD2" t="n">
-        <v>337927.505687837</v>
+        <v>372779.8861398301</v>
       </c>
       <c r="AE2" t="n">
-        <v>462367.3215914748</v>
+        <v>510053.8861044005</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.456497315177108e-06</v>
+        <v>4.723114956943542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4599609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>418239.6333553952</v>
+        <v>461375.0590797209</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.9545511430907</v>
+        <v>231.8068420865323</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.4819058954088</v>
+        <v>317.1683479387616</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.7629310170603</v>
+        <v>286.8982459601524</v>
       </c>
       <c r="AD3" t="n">
-        <v>196954.5511430907</v>
+        <v>231806.8420865323</v>
       </c>
       <c r="AE3" t="n">
-        <v>269481.9058954088</v>
+        <v>317168.3479387616</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425582288406658e-06</v>
+        <v>6.586377620953301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.632161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>243762.9310170603</v>
+        <v>286898.2459601524</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.2635975499802</v>
+        <v>192.4701007359685</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.5939215506804</v>
+        <v>263.3460830083982</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.4909227220607</v>
+        <v>238.2127024547025</v>
       </c>
       <c r="AD4" t="n">
-        <v>169263.5975499802</v>
+        <v>192470.1007359685</v>
       </c>
       <c r="AE4" t="n">
-        <v>231593.9215506804</v>
+        <v>263346.0830083982</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.783614285760407e-06</v>
+        <v>7.274766845447095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.1943359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>209490.9227220607</v>
+        <v>238212.7024547025</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.9138909330158</v>
+        <v>181.1203941190041</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.0647522436402</v>
+        <v>247.8169137013579</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.4438355383534</v>
+        <v>224.1656152709952</v>
       </c>
       <c r="AD5" t="n">
-        <v>157913.8909330158</v>
+        <v>181120.3941190041</v>
       </c>
       <c r="AE5" t="n">
-        <v>216064.7522436402</v>
+        <v>247816.9137013579</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.926164062484584e-06</v>
+        <v>7.54884774038444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.041341145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>195443.8355383534</v>
+        <v>224165.6152709952</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.4760969639819</v>
+        <v>181.6826001499701</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.8339873379871</v>
+        <v>248.5861487957048</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.1396559149244</v>
+        <v>224.8614356475661</v>
       </c>
       <c r="AD6" t="n">
-        <v>158476.0969639819</v>
+        <v>181682.6001499702</v>
       </c>
       <c r="AE6" t="n">
-        <v>216833.9873379871</v>
+        <v>248586.1487957049</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.924896520010293e-06</v>
+        <v>7.546410632563521e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>196139.6559149244</v>
+        <v>224861.4356475661</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.9820696215384</v>
+        <v>523.3534913790166</v>
       </c>
       <c r="AB2" t="n">
-        <v>649.8914223861908</v>
+        <v>716.0753356312906</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.8666971619921</v>
+        <v>647.7341106166851</v>
       </c>
       <c r="AD2" t="n">
-        <v>474982.0696215384</v>
+        <v>523353.4913790167</v>
       </c>
       <c r="AE2" t="n">
-        <v>649891.4223861909</v>
+        <v>716075.3356312906</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005629463491877e-06</v>
+        <v>3.736335570662219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>587866.6971619921</v>
+        <v>647734.1106166851</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.6751205444099</v>
+        <v>276.8609209317032</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.7212471682851</v>
+        <v>378.8133262605509</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.7260965614651</v>
+        <v>342.6599140700857</v>
       </c>
       <c r="AD3" t="n">
-        <v>252675.1205444098</v>
+        <v>276860.9209317032</v>
       </c>
       <c r="AE3" t="n">
-        <v>345721.2471682851</v>
+        <v>378813.3262605509</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.049524260031312e-06</v>
+        <v>5.68103240092759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.022786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>312726.0965614651</v>
+        <v>342659.9140700857</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.3324574566632</v>
+        <v>227.4329169893814</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.2084386870026</v>
+        <v>311.1837506568862</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.6566157667928</v>
+        <v>281.4848102434221</v>
       </c>
       <c r="AD4" t="n">
-        <v>203332.4574566632</v>
+        <v>227432.9169893814</v>
       </c>
       <c r="AE4" t="n">
-        <v>278208.4386870026</v>
+        <v>311183.7506568861</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445078698352196e-06</v>
+        <v>6.41792031812966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>251656.6157667928</v>
+        <v>281484.8102434222</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.6503492598987</v>
+        <v>208.7508087926168</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.6467540557574</v>
+        <v>285.6220660256409</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.5345024406958</v>
+        <v>258.3626969173251</v>
       </c>
       <c r="AD5" t="n">
-        <v>184650.3492598986</v>
+        <v>208750.8087926168</v>
       </c>
       <c r="AE5" t="n">
-        <v>252646.7540557574</v>
+        <v>285622.0660256409</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.663419478010643e-06</v>
+        <v>6.824672630265944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.181315104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>228534.5024406958</v>
+        <v>258362.6969173251</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.6300317061561</v>
+        <v>196.7304912388743</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.2000252797511</v>
+        <v>269.1753372496347</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.6574263759375</v>
+        <v>243.4856208525669</v>
       </c>
       <c r="AD6" t="n">
-        <v>172630.0317061561</v>
+        <v>196730.4912388743</v>
       </c>
       <c r="AE6" t="n">
-        <v>236200.0252797511</v>
+        <v>269175.3372496347</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.788494864289124e-06</v>
+        <v>7.057678588381944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>213657.4263759375</v>
+        <v>243485.6208525669</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.1335783474479</v>
+        <v>194.2340378801661</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.7842676586191</v>
+        <v>265.7595796285026</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.5676638681194</v>
+        <v>240.3958583447487</v>
       </c>
       <c r="AD7" t="n">
-        <v>170133.5783474479</v>
+        <v>194234.0378801661</v>
       </c>
       <c r="AE7" t="n">
-        <v>232784.2676586191</v>
+        <v>265759.5796285027</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.811834740735371e-06</v>
+        <v>7.101159007955134e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0185546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>210567.6638681194</v>
+        <v>240395.8583447487</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.599563348126</v>
+        <v>267.7904216148638</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.9894723750386</v>
+        <v>366.4026689330635</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.3546876432142</v>
+        <v>331.4337124594668</v>
       </c>
       <c r="AD2" t="n">
-        <v>234599.563348126</v>
+        <v>267790.4216148638</v>
       </c>
       <c r="AE2" t="n">
-        <v>320989.4723750387</v>
+        <v>366402.6689330635</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015461552471569e-06</v>
+        <v>6.044484705925982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>290354.6876432142</v>
+        <v>331433.7124594668</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.4660874476087</v>
+        <v>177.6218030798059</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.7155595254395</v>
+        <v>243.0299870945859</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.4142850725552</v>
+        <v>219.8355462210783</v>
       </c>
       <c r="AD3" t="n">
-        <v>155466.0874476086</v>
+        <v>177621.8030798059</v>
       </c>
       <c r="AE3" t="n">
-        <v>212715.5595254395</v>
+        <v>243029.9870945859</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.882316387793949e-06</v>
+        <v>7.782092930467759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.269205729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>192414.2850725552</v>
+        <v>219835.5462210783</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.6384534847054</v>
+        <v>167.7941691169026</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.268957172791</v>
+        <v>229.5833847419374</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.2510075760143</v>
+        <v>207.6722687245373</v>
       </c>
       <c r="AD4" t="n">
-        <v>145638.4534847054</v>
+        <v>167794.1691169026</v>
       </c>
       <c r="AE4" t="n">
-        <v>199268.957172791</v>
+        <v>229583.3847419374</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.037177346746891e-06</v>
+        <v>8.092511313076174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.104817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>180251.0075760143</v>
+        <v>207672.2687245373</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.2746105875414</v>
+        <v>199.1250167535855</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.8725018407612</v>
+        <v>272.451632697871</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0292314897187</v>
+        <v>246.4492312615342</v>
       </c>
       <c r="AD2" t="n">
-        <v>167274.6105875414</v>
+        <v>199125.0167535855</v>
       </c>
       <c r="AE2" t="n">
-        <v>228872.5018407612</v>
+        <v>272451.6326978711</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.55653942081376e-06</v>
+        <v>7.440502886909267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.853515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>207029.2314897187</v>
+        <v>246449.2312615342</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.1586543539529</v>
+        <v>157.3639010216761</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.2982777828807</v>
+        <v>215.3122317831032</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.5182316226101</v>
+        <v>194.7631345744007</v>
       </c>
       <c r="AD3" t="n">
-        <v>136158.6543539529</v>
+        <v>157363.9010216761</v>
       </c>
       <c r="AE3" t="n">
-        <v>186298.2777828808</v>
+        <v>215312.2317831032</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092130882467887e-06</v>
+        <v>8.560993719464042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>168518.2316226101</v>
+        <v>194763.1345744007</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.7383334034447</v>
+        <v>154.1838524632119</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.9866878813728</v>
+        <v>210.9611490515736</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.5226952134554</v>
+        <v>190.827313071984</v>
       </c>
       <c r="AD2" t="n">
-        <v>133738.3334034447</v>
+        <v>154183.8524632119</v>
       </c>
       <c r="AE2" t="n">
-        <v>182986.6878813728</v>
+        <v>210961.1490515736</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990986998236695e-06</v>
+        <v>8.675830113540402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.474283854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165522.6952134554</v>
+        <v>190827.313071984</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.9606325096406</v>
+        <v>150.4061515694077</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.8178708580715</v>
+        <v>205.7923320282723</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.847182832376</v>
+        <v>186.1518006909046</v>
       </c>
       <c r="AD3" t="n">
-        <v>129960.6325096406</v>
+        <v>150406.1515694078</v>
       </c>
       <c r="AE3" t="n">
-        <v>177817.8708580715</v>
+        <v>205792.3320282723</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.084680895383082e-06</v>
+        <v>8.879507132452449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.371744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>160847.182832376</v>
+        <v>186151.8006909046</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.1966005455907</v>
+        <v>149.2214447362226</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.1407327350332</v>
+        <v>204.1713638735324</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.1392312249401</v>
+        <v>184.6855354618095</v>
       </c>
       <c r="AD2" t="n">
-        <v>130196.6005455907</v>
+        <v>149221.4447362226</v>
       </c>
       <c r="AE2" t="n">
-        <v>178140.7327350332</v>
+        <v>204171.3638735324</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.800165292831915e-06</v>
+        <v>9.03879561484524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0439453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>161139.2312249402</v>
+        <v>184685.5354618095</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.6315768258124</v>
+        <v>347.1160943832527</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.7563157448333</v>
+        <v>474.9395540164662</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.9318533299054</v>
+        <v>429.6119895629844</v>
       </c>
       <c r="AD2" t="n">
-        <v>312631.5768258125</v>
+        <v>347116.0943832527</v>
       </c>
       <c r="AE2" t="n">
-        <v>427756.3157448333</v>
+        <v>474939.5540164661</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.583435919903075e-06</v>
+        <v>5.013359414313628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.204427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>386931.8533299054</v>
+        <v>429611.9895629844</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.2191548716294</v>
+        <v>209.3510083285078</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.7932631045452</v>
+        <v>286.4432855095812</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.4761516785123</v>
+        <v>259.1055403663073</v>
       </c>
       <c r="AD3" t="n">
-        <v>186219.1548716294</v>
+        <v>209351.0083285078</v>
       </c>
       <c r="AE3" t="n">
-        <v>254793.2631045452</v>
+        <v>286443.2855095813</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534720168826751e-06</v>
+        <v>6.859400885010801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.534505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>230476.1516785123</v>
+        <v>259105.5403663073</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.3845331697077</v>
+        <v>183.345794425994</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.4451939489232</v>
+        <v>250.8618045791125</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.5016526317651</v>
+        <v>226.919906036909</v>
       </c>
       <c r="AD4" t="n">
-        <v>160384.5331697077</v>
+        <v>183345.794425994</v>
       </c>
       <c r="AE4" t="n">
-        <v>219445.1939489233</v>
+        <v>250861.8045791125</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881653337455955e-06</v>
+        <v>7.532651827170857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.129231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>198501.6526317651</v>
+        <v>226919.906036909</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.6279204091364</v>
+        <v>177.5891816654226</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.5687424060824</v>
+        <v>242.9853530362716</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.3769185695012</v>
+        <v>219.7951719746452</v>
       </c>
       <c r="AD5" t="n">
-        <v>154627.9204091364</v>
+        <v>177589.1816654227</v>
       </c>
       <c r="AE5" t="n">
-        <v>211568.7424060823</v>
+        <v>242985.3530362716</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.958957492259794e-06</v>
+        <v>7.682666584365193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.0478515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>191376.9185695012</v>
+        <v>219795.1719746452</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.8884041501844</v>
+        <v>487.6651347660901</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.8747210650318</v>
+        <v>667.2449516543104</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.432642423061</v>
+        <v>603.5640299525936</v>
       </c>
       <c r="AD2" t="n">
-        <v>439888.4041501844</v>
+        <v>487665.1347660901</v>
       </c>
       <c r="AE2" t="n">
-        <v>601874.7210650318</v>
+        <v>667244.9516543105</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109995098220126e-06</v>
+        <v>3.959178406043783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3193359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>544432.642423061</v>
+        <v>603564.0299525936</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.3161384457576</v>
+        <v>264.1912897035623</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.3922132184801</v>
+        <v>361.4781778695271</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.5779388342258</v>
+        <v>326.9792079114677</v>
       </c>
       <c r="AD3" t="n">
-        <v>228316.1384457576</v>
+        <v>264191.2897035623</v>
       </c>
       <c r="AE3" t="n">
-        <v>312392.2132184801</v>
+        <v>361478.1778695271</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.146535528076588e-06</v>
+        <v>5.904134813923982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282577.9388342259</v>
+        <v>326979.2079114676</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.1746417492247</v>
+        <v>219.0630518114528</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.0465553386621</v>
+        <v>299.7317318680588</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.5600068994127</v>
+        <v>271.1257560547875</v>
       </c>
       <c r="AD4" t="n">
-        <v>195174.6417492247</v>
+        <v>219063.0518114528</v>
       </c>
       <c r="AE4" t="n">
-        <v>267046.5553386621</v>
+        <v>299731.7318680588</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518334979159406e-06</v>
+        <v>6.601776414773073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.3896484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>241560.0068994127</v>
+        <v>271125.7560547875</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.4976801204445</v>
+        <v>201.3860901826725</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.8601565856693</v>
+        <v>275.5453331150659</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.6819240975739</v>
+        <v>249.2476732529488</v>
       </c>
       <c r="AD5" t="n">
-        <v>177497.6801204445</v>
+        <v>201386.0901826725</v>
       </c>
       <c r="AE5" t="n">
-        <v>242860.1565856693</v>
+        <v>275545.3331150659</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.72719934665131e-06</v>
+        <v>6.993687890900906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.143880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>219681.9240975739</v>
+        <v>249247.6732529488</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.5906844166558</v>
+        <v>191.4790944788838</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.3049679979485</v>
+        <v>261.9901445273452</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.4204236838343</v>
+        <v>236.9861728392091</v>
       </c>
       <c r="AD6" t="n">
-        <v>167590.6844166558</v>
+        <v>191479.0944788838</v>
       </c>
       <c r="AE6" t="n">
-        <v>229304.9679979485</v>
+        <v>261990.1445273452</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.837088005240872e-06</v>
+        <v>7.199882115960439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.025065104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>207420.4236838343</v>
+        <v>236986.1728392091</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.8149944596723</v>
+        <v>190.7034045219004</v>
       </c>
       <c r="AB7" t="n">
-        <v>228.2436347777785</v>
+        <v>260.9288113071752</v>
       </c>
       <c r="AC7" t="n">
-        <v>206.4603826166064</v>
+        <v>236.0261317719813</v>
       </c>
       <c r="AD7" t="n">
-        <v>166814.9944596723</v>
+        <v>190703.4045219003</v>
       </c>
       <c r="AE7" t="n">
-        <v>228243.6347777785</v>
+        <v>260928.8113071752</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.852366134802979e-06</v>
+        <v>7.228549879548163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0087890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>206460.3826166064</v>
+        <v>236026.1317719813</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.466122277022</v>
+        <v>155.9467011667218</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.7730160246655</v>
+        <v>213.3731564191107</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.9974860742979</v>
+        <v>193.0091218416376</v>
       </c>
       <c r="AD2" t="n">
-        <v>128466.122277022</v>
+        <v>155946.7011667218</v>
       </c>
       <c r="AE2" t="n">
-        <v>175773.0160246655</v>
+        <v>213373.1564191107</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419295429660213e-06</v>
+        <v>8.551398380851409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.804036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>158997.4860742979</v>
+        <v>193009.1218416377</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.4293249907949</v>
+        <v>218.0573084480315</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.7632683024956</v>
+        <v>298.3556294279608</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.1128791874002</v>
+        <v>269.8809869002002</v>
       </c>
       <c r="AD2" t="n">
-        <v>196429.3249907949</v>
+        <v>218057.3084480315</v>
       </c>
       <c r="AE2" t="n">
-        <v>268763.2683024956</v>
+        <v>298355.6294279608</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.355457025330018e-06</v>
+        <v>6.90983714669185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.069986979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>243112.8791874002</v>
+        <v>269880.9869002002</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4099299071257</v>
+        <v>160.9525725097907</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7468164308838</v>
+        <v>220.2224104341514</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5422079856124</v>
+        <v>199.2046926664735</v>
       </c>
       <c r="AD3" t="n">
-        <v>139409.9299071257</v>
+        <v>160952.5725097907</v>
       </c>
       <c r="AE3" t="n">
-        <v>190746.8164308838</v>
+        <v>220222.4104341514</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.073557854491001e-06</v>
+        <v>8.388610305444721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.176432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172542.2079856124</v>
+        <v>199204.6926664735</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.6200844699949</v>
+        <v>161.1627270726599</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.0343591751663</v>
+        <v>220.5099531784339</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.8023080539494</v>
+        <v>199.4647927348105</v>
       </c>
       <c r="AD4" t="n">
-        <v>139620.0844699949</v>
+        <v>161162.7270726599</v>
       </c>
       <c r="AE4" t="n">
-        <v>191034.3591751663</v>
+        <v>220509.9531784339</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.083590990802959e-06</v>
+        <v>8.409271377084989e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.1650390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>172802.3080539494</v>
+        <v>199464.7927348105</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2087928183716</v>
+        <v>288.9927148046955</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.1879293512496</v>
+        <v>395.4125818545509</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.8619234624076</v>
+        <v>357.674960007396</v>
       </c>
       <c r="AD2" t="n">
-        <v>255208.7928183716</v>
+        <v>288992.7148046955</v>
       </c>
       <c r="AE2" t="n">
-        <v>349187.9293512497</v>
+        <v>395412.5818545509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.862810665139552e-06</v>
+        <v>5.671755004816909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.721028645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>315861.9234624075</v>
+        <v>357674.9600073959</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.930797101562</v>
+        <v>188.3681604130883</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.0338369443782</v>
+        <v>257.733627293801</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.3660461904636</v>
+        <v>233.1358916363736</v>
       </c>
       <c r="AD3" t="n">
-        <v>165930.797101562</v>
+        <v>188368.1604130883</v>
       </c>
       <c r="AE3" t="n">
-        <v>227033.8369443782</v>
+        <v>257733.627293801</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.757344664404626e-06</v>
+        <v>7.443991551610425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.358723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>205366.0461904636</v>
+        <v>233135.8916363736</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.2960059956865</v>
+        <v>170.7333693072127</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.9051377612558</v>
+        <v>233.6049281106785</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.5401561925286</v>
+        <v>211.3100016384387</v>
       </c>
       <c r="AD4" t="n">
-        <v>148296.0059956865</v>
+        <v>170733.3693072127</v>
       </c>
       <c r="AE4" t="n">
-        <v>202905.1377612558</v>
+        <v>233604.9281106785</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.018460044392574e-06</v>
+        <v>7.961309193784685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>183540.1561925286</v>
+        <v>211310.0016384387</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.8546947739396</v>
+        <v>171.2920580854659</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.6695603952707</v>
+        <v>234.3693507446935</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.2316234032273</v>
+        <v>212.0014688491373</v>
       </c>
       <c r="AD5" t="n">
-        <v>148854.6947739396</v>
+        <v>171292.0580854659</v>
       </c>
       <c r="AE5" t="n">
-        <v>203669.5603952706</v>
+        <v>234369.3507446935</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017856309409944e-06</v>
+        <v>7.960113083629368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>184231.6234032273</v>
+        <v>212001.4688491373</v>
       </c>
     </row>
   </sheetData>
